--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Adm-Ramp3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Adm-Ramp3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,6 +95,9 @@
   </si>
   <si>
     <t>Ramp3</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,185 +528,1239 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.35683168113936</v>
+        <v>8.650723999999999</v>
       </c>
       <c r="H2">
-        <v>7.35683168113936</v>
+        <v>25.952172</v>
       </c>
       <c r="I2">
-        <v>0.2150519668159116</v>
+        <v>0.2392268437287548</v>
       </c>
       <c r="J2">
-        <v>0.2150519668159116</v>
+        <v>0.2392268437287548</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.470297938523162</v>
+        <v>0.9276133333333334</v>
       </c>
       <c r="N2">
-        <v>0.470297938523162</v>
+        <v>2.78284</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.6228334980591008</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.6228334980591007</v>
       </c>
       <c r="Q2">
-        <v>3.459902773701729</v>
+        <v>8.024526925386667</v>
       </c>
       <c r="R2">
-        <v>3.459902773701729</v>
+        <v>72.22074232848</v>
       </c>
       <c r="S2">
-        <v>0.2150519668159116</v>
+        <v>0.1489984919092182</v>
       </c>
       <c r="T2">
-        <v>0.2150519668159116</v>
+        <v>0.1489984919092182</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>26.0755537969347</v>
+        <v>8.650723999999999</v>
       </c>
       <c r="H3">
-        <v>26.0755537969347</v>
+        <v>25.952172</v>
       </c>
       <c r="I3">
-        <v>0.762230179089331</v>
+        <v>0.2392268437287548</v>
       </c>
       <c r="J3">
-        <v>0.762230179089331</v>
+        <v>0.2392268437287548</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.470297938523162</v>
+        <v>0.483825</v>
       </c>
       <c r="N3">
-        <v>0.470297938523162</v>
+        <v>1.451475</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.3248577897383009</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.3248577897383008</v>
       </c>
       <c r="Q3">
-        <v>12.2632791965482</v>
+        <v>4.185436539299999</v>
       </c>
       <c r="R3">
-        <v>12.2632791965482</v>
+        <v>37.6689288537</v>
       </c>
       <c r="S3">
-        <v>0.762230179089331</v>
+        <v>0.07771470369979319</v>
       </c>
       <c r="T3">
-        <v>0.762230179089331</v>
+        <v>0.07771470369979318</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>8.650723999999999</v>
+      </c>
+      <c r="H4">
+        <v>25.952172</v>
+      </c>
+      <c r="I4">
+        <v>0.2392268437287548</v>
+      </c>
+      <c r="J4">
+        <v>0.2392268437287548</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.027718</v>
+      </c>
+      <c r="N4">
+        <v>0.08315400000000001</v>
+      </c>
+      <c r="O4">
+        <v>0.01861087834643978</v>
+      </c>
+      <c r="P4">
+        <v>0.01861087834643977</v>
+      </c>
+      <c r="Q4">
+        <v>0.239780767832</v>
+      </c>
+      <c r="R4">
+        <v>2.158026910488</v>
+      </c>
+      <c r="S4">
+        <v>0.004452221685838615</v>
+      </c>
+      <c r="T4">
+        <v>0.004452221685838615</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>8.650723999999999</v>
+      </c>
+      <c r="H5">
+        <v>25.952172</v>
+      </c>
+      <c r="I5">
+        <v>0.2392268437287548</v>
+      </c>
+      <c r="J5">
+        <v>0.2392268437287548</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.05018766666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.150563</v>
+      </c>
+      <c r="O5">
+        <v>0.03369783385615859</v>
+      </c>
+      <c r="P5">
+        <v>0.03369783385615859</v>
+      </c>
+      <c r="Q5">
+        <v>0.4341596525373332</v>
+      </c>
+      <c r="R5">
+        <v>3.907436872836</v>
+      </c>
+      <c r="S5">
+        <v>0.008061426433904794</v>
+      </c>
+      <c r="T5">
+        <v>0.008061426433904796</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>26.269711</v>
+      </c>
+      <c r="H6">
+        <v>78.809133</v>
+      </c>
+      <c r="I6">
+        <v>0.7264617444963627</v>
+      </c>
+      <c r="J6">
+        <v>0.7264617444963627</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.9276133333333334</v>
+      </c>
+      <c r="N6">
+        <v>2.78284</v>
+      </c>
+      <c r="O6">
+        <v>0.6228334980591008</v>
+      </c>
+      <c r="P6">
+        <v>0.6228334980591007</v>
+      </c>
+      <c r="Q6">
+        <v>24.36813418641334</v>
+      </c>
+      <c r="R6">
+        <v>219.31320767772</v>
+      </c>
+      <c r="S6">
+        <v>0.4524647095307863</v>
+      </c>
+      <c r="T6">
+        <v>0.4524647095307862</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>26.269711</v>
+      </c>
+      <c r="H7">
+        <v>78.809133</v>
+      </c>
+      <c r="I7">
+        <v>0.7264617444963627</v>
+      </c>
+      <c r="J7">
+        <v>0.7264617444963627</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.483825</v>
+      </c>
+      <c r="N7">
+        <v>1.451475</v>
+      </c>
+      <c r="O7">
+        <v>0.3248577897383009</v>
+      </c>
+      <c r="P7">
+        <v>0.3248577897383008</v>
+      </c>
+      <c r="Q7">
+        <v>12.709942924575</v>
+      </c>
+      <c r="R7">
+        <v>114.389486321175</v>
+      </c>
+      <c r="S7">
+        <v>0.2359967566465186</v>
+      </c>
+      <c r="T7">
+        <v>0.2359967566465186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>26.269711</v>
+      </c>
+      <c r="H8">
+        <v>78.809133</v>
+      </c>
+      <c r="I8">
+        <v>0.7264617444963627</v>
+      </c>
+      <c r="J8">
+        <v>0.7264617444963627</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.027718</v>
+      </c>
+      <c r="N8">
+        <v>0.08315400000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.01861087834643978</v>
+      </c>
+      <c r="P8">
+        <v>0.01861087834643977</v>
+      </c>
+      <c r="Q8">
+        <v>0.7281438494980002</v>
+      </c>
+      <c r="R8">
+        <v>6.553294645482</v>
+      </c>
+      <c r="S8">
+        <v>0.01352009115016422</v>
+      </c>
+      <c r="T8">
+        <v>0.01352009115016422</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>26.269711</v>
+      </c>
+      <c r="H9">
+        <v>78.809133</v>
+      </c>
+      <c r="I9">
+        <v>0.7264617444963627</v>
+      </c>
+      <c r="J9">
+        <v>0.7264617444963627</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.05018766666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.150563</v>
+      </c>
+      <c r="O9">
+        <v>0.03369783385615859</v>
+      </c>
+      <c r="P9">
+        <v>0.03369783385615859</v>
+      </c>
+      <c r="Q9">
+        <v>1.318415499097667</v>
+      </c>
+      <c r="R9">
+        <v>11.865739491879</v>
+      </c>
+      <c r="S9">
+        <v>0.02448018716889356</v>
+      </c>
+      <c r="T9">
+        <v>0.02448018716889356</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.021265</v>
+      </c>
+      <c r="H10">
+        <v>0.063795</v>
+      </c>
+      <c r="I10">
+        <v>0.0005880616271992926</v>
+      </c>
+      <c r="J10">
+        <v>0.0005880616271992925</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.9276133333333334</v>
+      </c>
+      <c r="N10">
+        <v>2.78284</v>
+      </c>
+      <c r="O10">
+        <v>0.6228334980591008</v>
+      </c>
+      <c r="P10">
+        <v>0.6228334980591007</v>
+      </c>
+      <c r="Q10">
+        <v>0.01972569753333334</v>
+      </c>
+      <c r="R10">
+        <v>0.1775312778</v>
+      </c>
+      <c r="S10">
+        <v>0.0003662644803428623</v>
+      </c>
+      <c r="T10">
+        <v>0.0003662644803428622</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.021265</v>
+      </c>
+      <c r="H11">
+        <v>0.063795</v>
+      </c>
+      <c r="I11">
+        <v>0.0005880616271992926</v>
+      </c>
+      <c r="J11">
+        <v>0.0005880616271992925</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.483825</v>
+      </c>
+      <c r="N11">
+        <v>1.451475</v>
+      </c>
+      <c r="O11">
+        <v>0.3248577897383009</v>
+      </c>
+      <c r="P11">
+        <v>0.3248577897383008</v>
+      </c>
+      <c r="Q11">
+        <v>0.010288538625</v>
+      </c>
+      <c r="R11">
+        <v>0.09259684762500001</v>
+      </c>
+      <c r="S11">
+        <v>0.0001910364004418709</v>
+      </c>
+      <c r="T11">
+        <v>0.0001910364004418708</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.021265</v>
+      </c>
+      <c r="H12">
+        <v>0.063795</v>
+      </c>
+      <c r="I12">
+        <v>0.0005880616271992926</v>
+      </c>
+      <c r="J12">
+        <v>0.0005880616271992925</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.027718</v>
+      </c>
+      <c r="N12">
+        <v>0.08315400000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.01861087834643978</v>
+      </c>
+      <c r="P12">
+        <v>0.01861087834643977</v>
+      </c>
+      <c r="Q12">
+        <v>0.0005894232700000002</v>
+      </c>
+      <c r="R12">
+        <v>0.005304809430000001</v>
+      </c>
+      <c r="S12">
+        <v>1.094434340401545E-05</v>
+      </c>
+      <c r="T12">
+        <v>1.094434340401545E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.021265</v>
+      </c>
+      <c r="H13">
+        <v>0.063795</v>
+      </c>
+      <c r="I13">
+        <v>0.0005880616271992926</v>
+      </c>
+      <c r="J13">
+        <v>0.0005880616271992925</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.05018766666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.150563</v>
+      </c>
+      <c r="O13">
+        <v>0.03369783385615859</v>
+      </c>
+      <c r="P13">
+        <v>0.03369783385615859</v>
+      </c>
+      <c r="Q13">
+        <v>0.001067240731666667</v>
+      </c>
+      <c r="R13">
+        <v>0.009605166585000002</v>
+      </c>
+      <c r="S13">
+        <v>1.981640301054403E-05</v>
+      </c>
+      <c r="T13">
+        <v>1.981640301054403E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.3188806666666666</v>
+      </c>
+      <c r="H14">
+        <v>0.956642</v>
+      </c>
+      <c r="I14">
+        <v>0.008818315717018348</v>
+      </c>
+      <c r="J14">
+        <v>0.008818315717018348</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.9276133333333334</v>
+      </c>
+      <c r="N14">
+        <v>2.78284</v>
+      </c>
+      <c r="O14">
+        <v>0.6228334980591008</v>
+      </c>
+      <c r="P14">
+        <v>0.6228334980591007</v>
+      </c>
+      <c r="Q14">
+        <v>0.2957979581422222</v>
+      </c>
+      <c r="R14">
+        <v>2.66218162328</v>
+      </c>
+      <c r="S14">
+        <v>0.005492342425020085</v>
+      </c>
+      <c r="T14">
+        <v>0.005492342425020084</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.3188806666666666</v>
+      </c>
+      <c r="H15">
+        <v>0.956642</v>
+      </c>
+      <c r="I15">
+        <v>0.008818315717018348</v>
+      </c>
+      <c r="J15">
+        <v>0.008818315717018348</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.483825</v>
+      </c>
+      <c r="N15">
+        <v>1.451475</v>
+      </c>
+      <c r="O15">
+        <v>0.3248577897383009</v>
+      </c>
+      <c r="P15">
+        <v>0.3248577897383008</v>
+      </c>
+      <c r="Q15">
+        <v>0.15428243855</v>
+      </c>
+      <c r="R15">
+        <v>1.38854194695</v>
+      </c>
+      <c r="S15">
+        <v>0.0028646985530451</v>
+      </c>
+      <c r="T15">
+        <v>0.0028646985530451</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.3188806666666666</v>
+      </c>
+      <c r="H16">
+        <v>0.956642</v>
+      </c>
+      <c r="I16">
+        <v>0.008818315717018348</v>
+      </c>
+      <c r="J16">
+        <v>0.008818315717018348</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.027718</v>
+      </c>
+      <c r="N16">
+        <v>0.08315400000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.01861087834643978</v>
+      </c>
+      <c r="P16">
+        <v>0.01861087834643977</v>
+      </c>
+      <c r="Q16">
+        <v>0.008838734318666667</v>
+      </c>
+      <c r="R16">
+        <v>0.079548608868</v>
+      </c>
+      <c r="S16">
+        <v>0.0001641166010299263</v>
+      </c>
+      <c r="T16">
+        <v>0.0001641166010299263</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.3188806666666666</v>
+      </c>
+      <c r="H17">
+        <v>0.956642</v>
+      </c>
+      <c r="I17">
+        <v>0.008818315717018348</v>
+      </c>
+      <c r="J17">
+        <v>0.008818315717018348</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.05018766666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.150563</v>
+      </c>
+      <c r="O17">
+        <v>0.03369783385615859</v>
+      </c>
+      <c r="P17">
+        <v>0.03369783385615859</v>
+      </c>
+      <c r="Q17">
+        <v>0.01600387660511111</v>
+      </c>
+      <c r="R17">
+        <v>0.144034889446</v>
+      </c>
+      <c r="S17">
+        <v>0.0002971581379232363</v>
+      </c>
+      <c r="T17">
+        <v>0.0002971581379232363</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>20</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.77716763629918</v>
-      </c>
-      <c r="H4">
-        <v>0.77716763629918</v>
-      </c>
-      <c r="I4">
-        <v>0.02271785409475725</v>
-      </c>
-      <c r="J4">
-        <v>0.02271785409475725</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0.470297938523162</v>
-      </c>
-      <c r="N4">
-        <v>0.470297938523162</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>0.3655003372384228</v>
-      </c>
-      <c r="R4">
-        <v>0.3655003372384228</v>
-      </c>
-      <c r="S4">
-        <v>0.02271785409475725</v>
-      </c>
-      <c r="T4">
-        <v>0.02271785409475725</v>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.9005953333333334</v>
+      </c>
+      <c r="H18">
+        <v>2.701786</v>
+      </c>
+      <c r="I18">
+        <v>0.02490503443066491</v>
+      </c>
+      <c r="J18">
+        <v>0.02490503443066491</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.9276133333333334</v>
+      </c>
+      <c r="N18">
+        <v>2.78284</v>
+      </c>
+      <c r="O18">
+        <v>0.6228334980591008</v>
+      </c>
+      <c r="P18">
+        <v>0.6228334980591007</v>
+      </c>
+      <c r="Q18">
+        <v>0.8354042391377779</v>
+      </c>
+      <c r="R18">
+        <v>7.518638152240001</v>
+      </c>
+      <c r="S18">
+        <v>0.01551168971373337</v>
+      </c>
+      <c r="T18">
+        <v>0.01551168971373337</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.9005953333333334</v>
+      </c>
+      <c r="H19">
+        <v>2.701786</v>
+      </c>
+      <c r="I19">
+        <v>0.02490503443066491</v>
+      </c>
+      <c r="J19">
+        <v>0.02490503443066491</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.483825</v>
+      </c>
+      <c r="N19">
+        <v>1.451475</v>
+      </c>
+      <c r="O19">
+        <v>0.3248577897383009</v>
+      </c>
+      <c r="P19">
+        <v>0.3248577897383008</v>
+      </c>
+      <c r="Q19">
+        <v>0.43573053715</v>
+      </c>
+      <c r="R19">
+        <v>3.921574834350001</v>
+      </c>
+      <c r="S19">
+        <v>0.008090594438502083</v>
+      </c>
+      <c r="T19">
+        <v>0.008090594438502083</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.9005953333333334</v>
+      </c>
+      <c r="H20">
+        <v>2.701786</v>
+      </c>
+      <c r="I20">
+        <v>0.02490503443066491</v>
+      </c>
+      <c r="J20">
+        <v>0.02490503443066491</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.027718</v>
+      </c>
+      <c r="N20">
+        <v>0.08315400000000001</v>
+      </c>
+      <c r="O20">
+        <v>0.01861087834643978</v>
+      </c>
+      <c r="P20">
+        <v>0.01861087834643977</v>
+      </c>
+      <c r="Q20">
+        <v>0.02496270144933334</v>
+      </c>
+      <c r="R20">
+        <v>0.224664313044</v>
+      </c>
+      <c r="S20">
+        <v>0.0004635045660029986</v>
+      </c>
+      <c r="T20">
+        <v>0.0004635045660029985</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.9005953333333334</v>
+      </c>
+      <c r="H21">
+        <v>2.701786</v>
+      </c>
+      <c r="I21">
+        <v>0.02490503443066491</v>
+      </c>
+      <c r="J21">
+        <v>0.02490503443066491</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.05018766666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.150563</v>
+      </c>
+      <c r="O21">
+        <v>0.03369783385615859</v>
+      </c>
+      <c r="P21">
+        <v>0.03369783385615859</v>
+      </c>
+      <c r="Q21">
+        <v>0.04519877839088889</v>
+      </c>
+      <c r="R21">
+        <v>0.4067890055180001</v>
+      </c>
+      <c r="S21">
+        <v>0.0008392457124264553</v>
+      </c>
+      <c r="T21">
+        <v>0.0008392457124264553</v>
       </c>
     </row>
   </sheetData>
